--- a/data/erp/testunsafedata.xlsx
+++ b/data/erp/testunsafedata.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20338"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\repositories\watex\data\erp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B44DFC5-D0B6-452A-AB19-B12205697F11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CC2B5C-8121-4D69-B05B-FDE1FC3E6489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="6375" xr2:uid="{2DFEB551-D8DA-451F-9214-16D4DBE6B760}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="16410" windowHeight="9690" xr2:uid="{2DFEB551-D8DA-451F-9214-16D4DBE6B760}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="testunsafe" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
